--- a/src/main/resources/excel/data.xlsx
+++ b/src/main/resources/excel/data.xlsx
@@ -16,42 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>12.12.2018</t>
-  </si>
-  <si>
-    <t>ponumber</t>
-  </si>
-  <si>
-    <t>podate</t>
-  </si>
-  <si>
-    <t>poamount</t>
-  </si>
-  <si>
-    <t>12.10.2018</t>
-  </si>
-  <si>
-    <t>x44vfd</t>
-  </si>
-  <si>
-    <t>x55ber</t>
-  </si>
-  <si>
-    <t>x66fhg</t>
-  </si>
-  <si>
-    <t>x77bjg</t>
-  </si>
-  <si>
-    <t>x33dgd1</t>
-  </si>
-  <si>
-    <t>dsdsdsdsdsdssdsd</t>
-  </si>
-  <si>
-    <t>dsdsdsdsdwqwqw</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>first  namr</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>yogi</t>
+  </si>
+  <si>
+    <t>pradip</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>kapadiya</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t>nishit</t>
+  </si>
+  <si>
+    <t>soni</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>jayesh</t>
+  </si>
+  <si>
+    <t>patel</t>
+  </si>
+  <si>
+    <t>.net</t>
+  </si>
+  <si>
+    <t>naresh</t>
+  </si>
+  <si>
+    <t>kotadiya</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>suryakant</t>
+  </si>
+  <si>
+    <t>boss</t>
   </si>
 </sst>
 </file>
@@ -396,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -410,35 +434,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -446,54 +470,43 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>700</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
